--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_full_price_Avg.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_full_price_Avg.xlsx
@@ -397,7 +397,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -414,7 +414,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.858883216167294E-09</v>
+        <v>0.0002195405251500087</v>
       </c>
       <c r="D2">
         <v>0.5847165279804634</v>
@@ -431,7 +431,7 @@
         <v>2.950586604829724E-10</v>
       </c>
       <c r="C3">
-        <v>0.0005025079404054473</v>
+        <v>0.01062411525673284</v>
       </c>
       <c r="D3">
         <v>0.5098564920815787</v>
@@ -448,7 +448,7 @@
         <v>4.605951621712099E-12</v>
       </c>
       <c r="C4">
-        <v>9.977804045657202E-05</v>
+        <v>0.009608716352691784</v>
       </c>
       <c r="D4">
         <v>0.4166937525759319</v>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.627657735623706E-18</v>
+        <v>2.138791829054013E-07</v>
       </c>
       <c r="D5">
         <v>0.02303590698439988</v>
@@ -492,7 +492,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.858883216167419E-09</v>
+        <v>0.0002195405251500235</v>
       </c>
       <c r="D2">
         <v>0.5847165279805026</v>
@@ -526,7 +526,7 @@
         <v>2.950586604829925E-10</v>
       </c>
       <c r="C3">
-        <v>0.0005025079404054812</v>
+        <v>0.01062411525673355</v>
       </c>
       <c r="D3">
         <v>0.5098564920816129</v>
@@ -543,7 +543,7 @@
         <v>4.60595162171241E-12</v>
       </c>
       <c r="C4">
-        <v>9.977804045657878E-05</v>
+        <v>0.009608716352692431</v>
       </c>
       <c r="D4">
         <v>0.41669375257596</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.627657735624077E-18</v>
+        <v>2.138791829054185E-07</v>
       </c>
       <c r="D5">
         <v>0.02303590698440173</v>
@@ -587,7 +587,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -604,7 +604,7 @@
         <v>9.901304551534366E-06</v>
       </c>
       <c r="C2">
-        <v>0.00045640749013724</v>
+        <v>0.007632681444695514</v>
       </c>
       <c r="D2">
         <v>1.101536214206334</v>
@@ -621,7 +621,7 @@
         <v>6.732543290709098E-05</v>
       </c>
       <c r="C3">
-        <v>0.02590083445439494</v>
+        <v>0.027535891297259</v>
       </c>
       <c r="D3">
         <v>0.782221375863945</v>
@@ -638,7 +638,7 @@
         <v>0.0001996663673797828</v>
       </c>
       <c r="C4">
-        <v>0.005661780233626572</v>
+        <v>0.007370778697872926</v>
       </c>
       <c r="D4">
         <v>0.6638415831600458</v>
@@ -655,7 +655,7 @@
         <v>6.272452008894037E-05</v>
       </c>
       <c r="C5">
-        <v>0.004141435196115032</v>
+        <v>0.016160587324431</v>
       </c>
       <c r="D5">
         <v>0.9533905590096068</v>
@@ -682,7 +682,7 @@
         <v>2011</v>
       </c>
       <c r="C1" s="1">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="D1" s="1">
         <v>2050</v>
@@ -699,7 +699,7 @@
         <v>8.265846938516411E-05</v>
       </c>
       <c r="C2">
-        <v>0.002352433236158991</v>
+        <v>0.005750015024097243</v>
       </c>
       <c r="D2">
         <v>1.548797540195856</v>
@@ -716,7 +716,7 @@
         <v>8.821213221951678E-05</v>
       </c>
       <c r="C3">
-        <v>0.04775458214733947</v>
+        <v>0.01921210602835477</v>
       </c>
       <c r="D3">
         <v>0.8156762103353417</v>
@@ -733,7 +733,7 @@
         <v>0.0005652393175857316</v>
       </c>
       <c r="C4">
-        <v>0.01052097936530436</v>
+        <v>0.0053924808017845</v>
       </c>
       <c r="D4">
         <v>0.8428959977190468</v>
@@ -750,7 +750,7 @@
         <v>0.0003035133465763992</v>
       </c>
       <c r="C5">
-        <v>0.01218230503195887</v>
+        <v>0.006847896595910315</v>
       </c>
       <c r="D5">
         <v>1.443724683792224</v>

--- a/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_full_price_Avg.xlsx
+++ b/Results/Sensitivity/EOL-RIR/Price/EOL_RIR_full_price_Avg.xlsx
@@ -414,13 +414,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002195405251500087</v>
+        <v>0.0002195405251500088</v>
       </c>
       <c r="D2">
         <v>0.5847165279804634</v>
       </c>
       <c r="E2">
-        <v>0.6693555412443472</v>
+        <v>0.6693555412443477</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.950586604829724E-10</v>
+        <v>2.950586604829726E-10</v>
       </c>
       <c r="C3">
-        <v>0.01062411525673284</v>
+        <v>0.01062411525673285</v>
       </c>
       <c r="D3">
-        <v>0.5098564920815787</v>
+        <v>0.509856492081579</v>
       </c>
       <c r="E3">
-        <v>0.5951755481861873</v>
+        <v>0.5951755481861878</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.605951621712099E-12</v>
+        <v>4.605951621712102E-12</v>
       </c>
       <c r="C4">
-        <v>0.009608716352691784</v>
+        <v>0.009608716352691792</v>
       </c>
       <c r="D4">
-        <v>0.4166937525759319</v>
+        <v>0.4166937525759324</v>
       </c>
       <c r="E4">
-        <v>0.5255530560794509</v>
+        <v>0.5255530560794512</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.138791829054013E-07</v>
+        <v>2.138791829054014E-07</v>
       </c>
       <c r="D5">
-        <v>0.02303590698439988</v>
+        <v>0.0230359069843999</v>
       </c>
       <c r="E5">
-        <v>0.04388860940365131</v>
+        <v>0.04388860940365135</v>
       </c>
     </row>
   </sheetData>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002195405251500235</v>
+        <v>0.0002195405251500236</v>
       </c>
       <c r="D2">
-        <v>0.5847165279805026</v>
+        <v>0.5847165279805027</v>
       </c>
       <c r="E2">
-        <v>0.6693555412443924</v>
+        <v>0.6693555412443926</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -523,16 +523,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.950586604829925E-10</v>
+        <v>2.950586604829927E-10</v>
       </c>
       <c r="C3">
-        <v>0.01062411525673355</v>
+        <v>0.01062411525673356</v>
       </c>
       <c r="D3">
-        <v>0.5098564920816129</v>
+        <v>0.5098564920816132</v>
       </c>
       <c r="E3">
-        <v>0.5951755481862271</v>
+        <v>0.5951755481862276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -540,16 +540,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.60595162171241E-12</v>
+        <v>4.605951621712413E-12</v>
       </c>
       <c r="C4">
-        <v>0.009608716352692431</v>
+        <v>0.009608716352692434</v>
       </c>
       <c r="D4">
-        <v>0.41669375257596</v>
+        <v>0.4166937525759603</v>
       </c>
       <c r="E4">
-        <v>0.5255530560794862</v>
+        <v>0.5255530560794867</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -563,10 +563,10 @@
         <v>2.138791829054185E-07</v>
       </c>
       <c r="D5">
-        <v>0.02303590698440173</v>
+        <v>0.02303590698440175</v>
       </c>
       <c r="E5">
-        <v>0.04388860940365481</v>
+        <v>0.04388860940365485</v>
       </c>
     </row>
   </sheetData>
@@ -601,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.901304551534366E-06</v>
+        <v>9.901304551534362E-06</v>
       </c>
       <c r="C2">
-        <v>0.007632681444695514</v>
+        <v>0.007632681444695516</v>
       </c>
       <c r="D2">
-        <v>1.101536214206334</v>
+        <v>1.101536214206335</v>
       </c>
       <c r="E2">
         <v>1.005670182794794</v>
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.732543290709098E-05</v>
+        <v>6.7325432907091E-05</v>
       </c>
       <c r="C3">
-        <v>0.027535891297259</v>
+        <v>0.02753589129725901</v>
       </c>
       <c r="D3">
-        <v>0.782221375863945</v>
+        <v>0.7822213758639455</v>
       </c>
       <c r="E3">
-        <v>0.7722347246253324</v>
+        <v>0.7722347246253327</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -638,13 +638,13 @@
         <v>0.0001996663673797828</v>
       </c>
       <c r="C4">
-        <v>0.007370778697872926</v>
+        <v>0.007370778697872921</v>
       </c>
       <c r="D4">
-        <v>0.6638415831600458</v>
+        <v>0.6638415831600454</v>
       </c>
       <c r="E4">
-        <v>0.7777630714309917</v>
+        <v>0.7777630714309913</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -699,13 +699,13 @@
         <v>8.265846938516411E-05</v>
       </c>
       <c r="C2">
-        <v>0.005750015024097243</v>
+        <v>0.005750015024097247</v>
       </c>
       <c r="D2">
-        <v>1.548797540195856</v>
+        <v>1.548797540195857</v>
       </c>
       <c r="E2">
-        <v>1.434882283128581</v>
+        <v>1.434882283128582</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -713,16 +713,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.821213221951678E-05</v>
+        <v>8.821213221951683E-05</v>
       </c>
       <c r="C3">
-        <v>0.01921210602835477</v>
+        <v>0.0192121060283548</v>
       </c>
       <c r="D3">
-        <v>0.8156762103353417</v>
+        <v>0.8156762103353424</v>
       </c>
       <c r="E3">
-        <v>0.7973700395273651</v>
+        <v>0.7973700395273657</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,13 +730,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0005652393175857316</v>
+        <v>0.0005652393175857314</v>
       </c>
       <c r="C4">
         <v>0.0053924808017845</v>
       </c>
       <c r="D4">
-        <v>0.8428959977190468</v>
+        <v>0.8428959977190466</v>
       </c>
       <c r="E4">
         <v>1.001017620351884</v>
@@ -747,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0003035133465763992</v>
+        <v>0.000303513346576399</v>
       </c>
       <c r="C5">
-        <v>0.006847896595910315</v>
+        <v>0.006847896595910312</v>
       </c>
       <c r="D5">
         <v>1.443724683792224</v>
       </c>
       <c r="E5">
-        <v>1.190407088332092</v>
+        <v>1.190407088332091</v>
       </c>
     </row>
   </sheetData>
